--- a/宮本の残補講計画.xlsx
+++ b/宮本の残補講計画.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plady\Desktop\HOKOU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HOKOU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,8 +159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="179" formatCode="aaa"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -737,46 +737,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
@@ -797,13 +779,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -830,12 +809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,6 +842,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -876,6 +861,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -1181,18 +1181,18 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
-      <c r="B2" s="21"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="27">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="38" t="s">
+      <c r="D2" s="49">
+        <v>2</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>7</v>
       </c>
       <c r="M2" t="s">
@@ -1204,11 +1204,11 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
-      <c r="B3" s="22"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="21">
         <v>44613</v>
       </c>
       <c r="E3" s="7">
@@ -1226,10 +1226,10 @@
       <c r="I3" s="7">
         <v>44618</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>44619</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="53"/>
       <c r="M3" t="s">
         <v>9</v>
       </c>
@@ -1239,11 +1239,11 @@
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
-      <c r="B4" s="22"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="22">
         <f>WEEKDAY(D3)</f>
         <v>2</v>
       </c>
@@ -1267,11 +1267,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K4" s="39"/>
+      <c r="K4" s="53"/>
       <c r="M4" t="s">
         <v>10</v>
       </c>
@@ -1280,47 +1280,47 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="34">
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27">
         <v>4</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="16">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="44">
+      <c r="D5" s="23"/>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="35">
         <f t="shared" ref="K5:K12" si="1">SUM(D5:J5)</f>
         <v>4</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="48">
+      <c r="N5" s="39">
         <f>1-(N3-N4)/N2</f>
         <v>0.76734104046242768</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="28">
         <v>12</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>6</v>
@@ -1332,8 +1332,8 @@
         <v>2</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="45">
+      <c r="J6" s="32"/>
+      <c r="K6" s="36">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1345,112 +1345,114 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="45">
+      <c r="J7" s="32"/>
+      <c r="K7" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="39">
         <f>1-(N3-N4-N6)/N2</f>
         <v>0.80491329479768781</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="18"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="46">
+      <c r="A8" s="44"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="20"/>
-      <c r="B9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="33"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="47">
+      <c r="J9" s="34"/>
+      <c r="K9" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="45">
+      <c r="J10" s="32"/>
+      <c r="K10" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="45">
+      <c r="J11" s="32"/>
+      <c r="K11" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="18"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="46">
+      <c r="A12" s="44"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1460,7 +1462,7 @@
     </row>
     <row r="14" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1">
@@ -1481,7 +1483,7 @@
     </row>
     <row r="15" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="1">
@@ -1498,7 +1500,7 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
@@ -1517,62 +1519,62 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:D15)-SUM($D$14:D14))/($N$2+SUM($D$14:D14))</f>
         <v>0.77442528735632188</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:E15)-SUM($D$14:E14))/($N$2+SUM($D$14:E14))</f>
         <v>0.78142857142857136</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:F15)-SUM($D$14:F14))/($N$2+SUM($D$14:F14))</f>
         <v>0.78142857142857136</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:G15)-SUM($D$14:G14))/($N$2+SUM($D$14:G14))</f>
-        <v>0.78835227272727271</v>
-      </c>
-      <c r="H16" s="50">
+        <v>0.79119318181818188</v>
+      </c>
+      <c r="H16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:H15)-SUM($D$14:H14))/($N$2+SUM($D$14:H14))</f>
-        <v>0.79519774011299438</v>
-      </c>
-      <c r="I16" s="50">
+        <v>0.79802259887005644</v>
+      </c>
+      <c r="I16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:I15)-SUM($D$14:I14))/($N$2+SUM($D$14:I14))</f>
-        <v>0.79519774011299438</v>
-      </c>
-      <c r="J16" s="50">
+        <v>0.79802259887005644</v>
+      </c>
+      <c r="J16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:J15)-SUM($D$14:J14))/($N$2+SUM($D$14:J14))</f>
-        <v>0.79519774011299438</v>
+        <v>0.79802259887005644</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="30">
-        <v>2</v>
-      </c>
-      <c r="E18" s="51">
+      <c r="D18" s="23">
+        <v>2</v>
+      </c>
+      <c r="E18" s="46">
         <v>3</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="38" t="s">
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="21">
         <f>J3+1</f>
         <v>44620</v>
       </c>
@@ -1596,19 +1598,19 @@
         <f t="shared" si="3"/>
         <v>44625</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="11">
         <f t="shared" si="3"/>
         <v>44626</v>
       </c>
-      <c r="K19" s="39"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="22">
         <f>WEEKDAY(D19)</f>
         <v>2</v>
       </c>
@@ -1632,43 +1634,43 @@
         <f t="shared" ref="I20" si="8">WEEKDAY(I19)</f>
         <v>7</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="12">
         <f t="shared" ref="J20" si="9">WEEKDAY(J19)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="39"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="34">
+      <c r="B21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="27">
         <v>4</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="44">
+      <c r="D21" s="23"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="35">
         <f t="shared" ref="K21:K28" si="10">SUM(D21:J21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="28">
         <v>12</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="24">
         <v>2</v>
       </c>
       <c r="E22" s="8"/>
@@ -1676,19 +1678,19 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="45">
+      <c r="J22" s="32"/>
+      <c r="K22" s="36">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8">
         <v>2</v>
       </c>
@@ -1702,101 +1704,101 @@
         <v>2</v>
       </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="45">
+      <c r="J23" s="32"/>
+      <c r="K23" s="36">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="18"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="46">
+      <c r="A24" s="44"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="37">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="47">
+      <c r="J25" s="34"/>
+      <c r="K25" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="45">
+      <c r="J26" s="32"/>
+      <c r="K26" s="36">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="17"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="45">
+      <c r="J27" s="32"/>
+      <c r="K27" s="36">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="46">
+      <c r="A28" s="44"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="37">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="1">
@@ -1817,7 +1819,7 @@
     </row>
     <row r="31" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="1">
@@ -1853,46 +1855,46 @@
       <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:D31)-SUM($D$30:D30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:D31)+SUM($D$14:$J$14))</f>
-        <v>0.80196629213483139</v>
-      </c>
-      <c r="E32" s="50">
+        <v>0.8047752808988764</v>
+      </c>
+      <c r="E32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:E31)-SUM($D$30:E30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:E31)+SUM($D$14:$J$14))</f>
-        <v>0.80865921787709494</v>
-      </c>
-      <c r="F32" s="50">
+        <v>0.81145251396648044</v>
+      </c>
+      <c r="F32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:F31)-SUM($D$30:F30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:F31)+SUM($D$14:$J$14))</f>
-        <v>0.81197771587743728</v>
-      </c>
-      <c r="G32" s="50">
+        <v>0.81476323119777161</v>
+      </c>
+      <c r="G32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:G31)-SUM($D$30:G30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:G31)+SUM($D$14:$J$14))</f>
-        <v>0.81855955678670367</v>
-      </c>
-      <c r="H32" s="50">
+        <v>0.82132963988919672</v>
+      </c>
+      <c r="H32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:H31)-SUM($D$30:H30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:H31)+SUM($D$14:$J$14))</f>
-        <v>0.82506887052341593</v>
-      </c>
-      <c r="I32" s="50">
+        <v>0.82782369146005508</v>
+      </c>
+      <c r="I32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:I31)-SUM($D$30:I30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:I31)+SUM($D$14:$J$14))</f>
-        <v>0.82506887052341593</v>
-      </c>
-      <c r="J32" s="50">
+        <v>0.82782369146005508</v>
+      </c>
+      <c r="J32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:J31)-SUM($D$30:J30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:J31)+SUM($D$14:$J$14))</f>
-        <v>0.82506887052341593</v>
+        <v>0.82782369146005508</v>
       </c>
     </row>
     <row r="33" collapsed="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K18:K20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K18:K20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/宮本の残補講計画.xlsx
+++ b/宮本の残補講計画.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>補講計画</t>
     <rPh sb="0" eb="4">
@@ -150,6 +150,33 @@
     <t>出席率</t>
     <rPh sb="0" eb="3">
       <t>シュッセキリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計画補講の予定</t>
+    <rPh sb="0" eb="4">
+      <t>ケイカクホコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補講の実数</t>
+    <rPh sb="0" eb="2">
+      <t>ホコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>進捗率</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクリツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -842,6 +869,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,21 +903,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,7 +1189,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -1183,16 +1210,16 @@
       <c r="A2" s="5"/>
       <c r="B2" s="15"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="49">
-        <v>2</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52" t="s">
+      <c r="D2" s="42">
+        <v>2</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45" t="s">
         <v>7</v>
       </c>
       <c r="M2" t="s">
@@ -1229,7 +1256,7 @@
       <c r="J3" s="11">
         <v>44619</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="46"/>
       <c r="M3" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +1298,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K4" s="53"/>
+      <c r="K4" s="46"/>
       <c r="M4" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1307,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1313,7 +1340,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1372,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="43"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1397,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="44"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="19"/>
       <c r="C8" s="29"/>
       <c r="D8" s="25"/>
@@ -1386,25 +1413,29 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="45"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="26"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="43"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
@@ -1422,9 +1453,16 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10">
+        <f>SUM(K5:K8,K21:K24)</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="43"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
@@ -1440,9 +1478,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <f>SUM(K9:K12,K25:K28)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="44"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19"/>
       <c r="C12" s="29"/>
       <c r="D12" s="25"/>
@@ -1456,11 +1501,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="39">
+        <f>N11/N10</f>
+        <v>0.19230769230769232</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="C14" s="40" t="s">
         <v>14</v>
@@ -1481,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="C15" s="40" t="s">
         <v>15</v>
@@ -1496,11 +1548,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
@@ -1515,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -1529,26 +1581,26 @@
       </c>
       <c r="F16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:F15)-SUM($D$14:F14))/($N$2+SUM($D$14:F14))</f>
-        <v>0.78142857142857136</v>
+        <v>0.78428571428571425</v>
       </c>
       <c r="G16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:G15)-SUM($D$14:G14))/($N$2+SUM($D$14:G14))</f>
-        <v>0.79119318181818188</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="H16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:H15)-SUM($D$14:H14))/($N$2+SUM($D$14:H14))</f>
-        <v>0.79802259887005644</v>
+        <v>0.80225988700564965</v>
       </c>
       <c r="I16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:I15)-SUM($D$14:I14))/($N$2+SUM($D$14:I14))</f>
-        <v>0.79802259887005644</v>
+        <v>0.80225988700564965</v>
       </c>
       <c r="J16" s="41">
         <f>1-($N$3-$N$4-SUM($D$15:J15)-SUM($D$14:J14))/($N$2+SUM($D$14:J14))</f>
-        <v>0.79802259887005644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.45"/>
+        <v>0.80225988700564965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="15"/>
@@ -1556,15 +1608,15 @@
       <c r="D18" s="23">
         <v>2</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="51">
         <v>3</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="52" t="s">
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="45" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1602,7 +1654,7 @@
         <f t="shared" si="3"/>
         <v>44626</v>
       </c>
-      <c r="K19" s="53"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
@@ -1638,10 +1690,10 @@
         <f t="shared" ref="J20" si="9">WEEKDAY(J19)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="53"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -1663,7 +1715,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="18" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1737,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="18" t="s">
         <v>4</v>
       </c>
@@ -1711,7 +1763,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="44"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="29"/>
       <c r="D24" s="25"/>
@@ -1727,7 +1779,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="45"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="20" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +1797,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="43"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="18" t="s">
         <v>3</v>
       </c>
@@ -1763,7 +1815,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="43"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="18" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1833,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="44"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="19"/>
       <c r="C28" s="29"/>
       <c r="D28" s="25"/>
@@ -1857,31 +1909,31 @@
       </c>
       <c r="D32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:D31)-SUM($D$30:D30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:D31)+SUM($D$14:$J$14))</f>
-        <v>0.8047752808988764</v>
+        <v>0.8089887640449438</v>
       </c>
       <c r="E32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:E31)-SUM($D$30:E30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:E31)+SUM($D$14:$J$14))</f>
-        <v>0.81145251396648044</v>
+        <v>0.81564245810055869</v>
       </c>
       <c r="F32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:F31)-SUM($D$30:F30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:F31)+SUM($D$14:$J$14))</f>
-        <v>0.81476323119777161</v>
+        <v>0.81894150417827305</v>
       </c>
       <c r="G32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:G31)-SUM($D$30:G30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:G31)+SUM($D$14:$J$14))</f>
-        <v>0.82132963988919672</v>
+        <v>0.82548476454293629</v>
       </c>
       <c r="H32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:H31)-SUM($D$30:H30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:H31)+SUM($D$14:$J$14))</f>
-        <v>0.82782369146005508</v>
+        <v>0.83195592286501374</v>
       </c>
       <c r="I32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:I31)-SUM($D$30:I30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:I31)+SUM($D$14:$J$14))</f>
-        <v>0.82782369146005508</v>
+        <v>0.83195592286501374</v>
       </c>
       <c r="J32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:J31)-SUM($D$30:J30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:J31)+SUM($D$14:$J$14))</f>
-        <v>0.82782369146005508</v>
+        <v>0.83195592286501374</v>
       </c>
     </row>
     <row r="33" collapsed="1" x14ac:dyDescent="0.4"/>

--- a/宮本の残補講計画.xlsx
+++ b/宮本の残補講計画.xlsx
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="N11">
         <f>SUM(K9:K12,K25:K28)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="N12" s="39">
         <f>N11/N10</f>
-        <v>0.19230769230769232</v>
+        <v>0.42307692307692307</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -1600,8 +1600,8 @@
         <v>0.80225988700564965</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="15"/>
       <c r="C18" s="3"/>
@@ -1620,7 +1620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="16"/>
       <c r="C19" s="4" t="s">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="K19" s="46"/>
     </row>
-    <row r="20" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" s="16"/>
       <c r="C20" s="4" t="s">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="47" t="s">
         <v>1</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="48"/>
       <c r="B22" s="18" t="s">
         <v>3</v>
@@ -1736,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="48"/>
       <c r="B23" s="18" t="s">
         <v>4</v>
@@ -1762,7 +1762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="49"/>
       <c r="B24" s="19"/>
       <c r="C24" s="29"/>
@@ -1778,13 +1778,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="50"/>
       <c r="B25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="30"/>
-      <c r="D25" s="26"/>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1793,10 +1795,14 @@
       <c r="J25" s="34"/>
       <c r="K25" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="39">
+        <f>SUM(K9,K25)/SUM(K5,K21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="48"/>
       <c r="B26" s="18" t="s">
         <v>3</v>
@@ -1813,14 +1819,20 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M26" s="39">
+        <f t="shared" ref="M26:M27" si="11">SUM(K10,K26)/SUM(K6,K22)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="48"/>
       <c r="B27" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="28"/>
-      <c r="D27" s="24"/>
+      <c r="D27" s="24">
+        <v>5</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1829,10 +1841,14 @@
       <c r="J27" s="32"/>
       <c r="K27" s="36">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="M27" s="39">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="49"/>
       <c r="B28" s="19"/>
       <c r="C28" s="29"/>
@@ -1847,8 +1863,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="M28" s="39" t="e">
+        <f>SUM(K12,K28)/SUM(K8,K24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="C30" s="40" t="s">
         <v>14</v>
@@ -1869,71 +1889,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="C31" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="1">
         <f>SUM(D25:D28)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ref="E31:J31" si="11">SUM(E25:E28)</f>
+        <f t="shared" ref="E31:J31" si="12">SUM(E25:E28)</f>
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:D31)-SUM($D$30:D30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:D31)+SUM($D$14:$J$14))</f>
-        <v>0.8089887640449438</v>
+        <v>0.81894150417827305</v>
       </c>
       <c r="E32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:E31)-SUM($D$30:E30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:E31)+SUM($D$14:$J$14))</f>
-        <v>0.81564245810055869</v>
+        <v>0.82548476454293629</v>
       </c>
       <c r="F32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:F31)-SUM($D$30:F30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:F31)+SUM($D$14:$J$14))</f>
-        <v>0.81894150417827305</v>
+        <v>0.82872928176795579</v>
       </c>
       <c r="G32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:G31)-SUM($D$30:G30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:G31)+SUM($D$14:$J$14))</f>
-        <v>0.82548476454293629</v>
+        <v>0.8351648351648352</v>
       </c>
       <c r="H32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:H31)-SUM($D$30:H30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:H31)+SUM($D$14:$J$14))</f>
-        <v>0.83195592286501374</v>
+        <v>0.84153005464480879</v>
       </c>
       <c r="I32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:I31)-SUM($D$30:I30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:I31)+SUM($D$14:$J$14))</f>
-        <v>0.83195592286501374</v>
+        <v>0.84153005464480879</v>
       </c>
       <c r="J32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:J31)-SUM($D$30:J30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:J31)+SUM($D$14:$J$14))</f>
-        <v>0.83195592286501374</v>
+        <v>0.84153005464480879</v>
       </c>
     </row>
     <row r="33" collapsed="1" x14ac:dyDescent="0.4"/>

--- a/宮本の残補講計画.xlsx
+++ b/宮本の残補講計画.xlsx
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="N11">
         <f>SUM(K9:K12,K25:K28)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="N12" s="39">
         <f>N11/N10</f>
-        <v>0.42307692307692307</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -1833,7 +1833,9 @@
       <c r="D27" s="24">
         <v>5</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1841,11 +1843,11 @@
       <c r="J27" s="32"/>
       <c r="K27" s="36">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" s="39">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1900,7 +1902,7 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" ref="E31:J31" si="12">SUM(E25:E28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="12"/>
@@ -1933,27 +1935,27 @@
       </c>
       <c r="E32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:E31)-SUM($D$30:E30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:E31)+SUM($D$14:$J$14))</f>
-        <v>0.82548476454293629</v>
+        <v>0.82710926694329179</v>
       </c>
       <c r="F32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:F31)-SUM($D$30:F30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:F31)+SUM($D$14:$J$14))</f>
-        <v>0.82872928176795579</v>
+        <v>0.83034482758620687</v>
       </c>
       <c r="G32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:G31)-SUM($D$30:G30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:G31)+SUM($D$14:$J$14))</f>
-        <v>0.8351648351648352</v>
+        <v>0.83676268861454051</v>
       </c>
       <c r="H32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:H31)-SUM($D$30:H30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:H31)+SUM($D$14:$J$14))</f>
-        <v>0.84153005464480879</v>
+        <v>0.84311050477489768</v>
       </c>
       <c r="I32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:I31)-SUM($D$30:I30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:I31)+SUM($D$14:$J$14))</f>
-        <v>0.84153005464480879</v>
+        <v>0.84311050477489768</v>
       </c>
       <c r="J32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:J31)-SUM($D$30:J30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:J31)+SUM($D$14:$J$14))</f>
-        <v>0.84153005464480879</v>
+        <v>0.84311050477489768</v>
       </c>
     </row>
     <row r="33" collapsed="1" x14ac:dyDescent="0.4"/>

--- a/宮本の残補講計画.xlsx
+++ b/宮本の残補講計画.xlsx
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="N11">
         <f>SUM(K9:K12,K25:K28)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="N12" s="39">
         <f>N11/N10</f>
-        <v>0.46153846153846156</v>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -1810,18 +1810,20 @@
       <c r="C26" s="28"/>
       <c r="D26" s="24"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <v>4</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="32"/>
       <c r="K26" s="36">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M26" s="39">
         <f t="shared" ref="M26:M27" si="11">SUM(K10,K26)/SUM(K6,K22)</f>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -1837,17 +1839,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="8">
+        <v>2</v>
+      </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="32"/>
       <c r="K27" s="36">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M27" s="39">
         <f t="shared" si="11"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1906,11 +1910,11 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="12"/>
@@ -1939,23 +1943,23 @@
       </c>
       <c r="F32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:F31)-SUM($D$30:F30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:F31)+SUM($D$14:$J$14))</f>
-        <v>0.83034482758620687</v>
+        <v>0.83676268861454051</v>
       </c>
       <c r="G32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:G31)-SUM($D$30:G30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:G31)+SUM($D$14:$J$14))</f>
-        <v>0.83676268861454051</v>
+        <v>0.84625850340136055</v>
       </c>
       <c r="H32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:H31)-SUM($D$30:H30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:H31)+SUM($D$14:$J$14))</f>
-        <v>0.84311050477489768</v>
+        <v>0.85250338294993233</v>
       </c>
       <c r="I32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:I31)-SUM($D$30:I30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:I31)+SUM($D$14:$J$14))</f>
-        <v>0.84311050477489768</v>
+        <v>0.85250338294993233</v>
       </c>
       <c r="J32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:J31)-SUM($D$30:J30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:J31)+SUM($D$14:$J$14))</f>
-        <v>0.84311050477489768</v>
+        <v>0.85250338294993233</v>
       </c>
     </row>
     <row r="33" collapsed="1" x14ac:dyDescent="0.4"/>

--- a/宮本の残補講計画.xlsx
+++ b/宮本の残補講計画.xlsx
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="N11">
         <f>SUM(K9:K12,K25:K28)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="N12" s="39">
         <f>N11/N10</f>
-        <v>0.69230769230769229</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -1842,16 +1842,18 @@
       <c r="G27" s="8">
         <v>2</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8">
+        <v>2</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="32"/>
       <c r="K27" s="36">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M27" s="39">
         <f t="shared" si="11"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1918,7 +1920,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="12"/>
@@ -1951,15 +1953,15 @@
       </c>
       <c r="H32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:H31)-SUM($D$30:H30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:H31)+SUM($D$14:$J$14))</f>
-        <v>0.85250338294993233</v>
+        <v>0.8556005398110661</v>
       </c>
       <c r="I32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:I31)-SUM($D$30:I30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:I31)+SUM($D$14:$J$14))</f>
-        <v>0.85250338294993233</v>
+        <v>0.8556005398110661</v>
       </c>
       <c r="J32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:J31)-SUM($D$30:J30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:J31)+SUM($D$14:$J$14))</f>
-        <v>0.85250338294993233</v>
+        <v>0.8556005398110661</v>
       </c>
     </row>
     <row r="33" collapsed="1" x14ac:dyDescent="0.4"/>

--- a/宮本の残補講計画.xlsx
+++ b/宮本の残補講計画.xlsx
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>

--- a/宮本の残補講計画.xlsx
+++ b/宮本の残補講計画.xlsx
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="N11">
         <f>SUM(K9:K12,K25:K28)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="N12" s="39">
         <f>N11/N10</f>
-        <v>0.76923076923076927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -1815,15 +1815,19 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="32"/>
+      <c r="I26" s="8">
+        <v>3</v>
+      </c>
+      <c r="J26" s="32">
+        <v>3</v>
+      </c>
       <c r="K26" s="36">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M26" s="39">
         <f t="shared" ref="M26:M27" si="11">SUM(K10,K26)/SUM(K6,K22)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -1924,11 +1928,11 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -1957,11 +1961,11 @@
       </c>
       <c r="I32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:I31)-SUM($D$30:I30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:I31)+SUM($D$14:$J$14))</f>
-        <v>0.8556005398110661</v>
+        <v>0.86021505376344087</v>
       </c>
       <c r="J32" s="41">
         <f>1-($N$3-$N$4-SUM($D$31:J31)-SUM($D$30:J30)-SUM($K$9:$K$12)-SUM($D$14:$J$14))/($N$2+SUM($D$30:J31)+SUM($D$14:$J$14))</f>
-        <v>0.8556005398110661</v>
+        <v>0.8647925033467202</v>
       </c>
     </row>
     <row r="33" collapsed="1" x14ac:dyDescent="0.4"/>
